--- a/Fase III - Construcción y Evolución/2. Reportes de Problemas/PR02.xlsx
+++ b/Fase III - Construcción y Evolución/2. Reportes de Problemas/PR02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27930"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelfi\Downloads\X\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Jonathan\6to semestre\Calidad de SW\Proyecto\BrailleTech\Fase III - Construcción y Evolución\2. Reportes de Problemas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87239CDC-6AFF-4F5C-AC7E-5C10BE46A559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800CD425-1B07-4CB3-A52B-0BE3CBF43E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{AAACD53E-982C-4521-B07F-7DC6290E23F5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AAACD53E-982C-4521-B07F-7DC6290E23F5}"/>
   </bookViews>
   <sheets>
     <sheet name="PR02" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Reporte de Problema</t>
   </si>
@@ -56,9 +54,6 @@
     <t>Ubicación del Problema</t>
   </si>
   <si>
-    <t>Aplicación de traduccion :Módulo de Traducción de Español a Braille</t>
-  </si>
-  <si>
     <t>Descripción del problema</t>
   </si>
   <si>
@@ -72,6 +67,18 @@
   </si>
   <si>
     <t>Observaciones</t>
+  </si>
+  <si>
+    <t>Aplicación de traduccion: Módulo de Traducción de Español a Braille</t>
+  </si>
+  <si>
+    <t>La falta de restricciones en la entrada de texto permite caracteres ajenos al español en la caja de texto. Esto se debe a que el sistema no valida adecuadamente el tipo de caracteres ingresados para la traducción al Braille.</t>
+  </si>
+  <si>
+    <t>Implementar una validación que restrinja la entrada a caracteres únicamente en español cuando se seleccione la opción de traducción de Español a Braille. Esto asegurará que solo los caracteres apropiados sean traducidos.</t>
+  </si>
+  <si>
+    <t>Probar el sistema después de implementar la solución y actualizar la documentación del sistema para reflejar estos cambios.</t>
   </si>
 </sst>
 </file>
@@ -741,20 +748,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F84A08-0160-4953-9528-DB07A5F993CD}">
   <dimension ref="B1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:G7"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="5.5703125" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" customWidth="1"/>
-    <col min="5" max="7" width="20.140625" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="5.59765625" customWidth="1"/>
+    <col min="3" max="3" width="36.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.59765625" customWidth="1"/>
+    <col min="5" max="7" width="20.09765625" customWidth="1"/>
+    <col min="8" max="8" width="5.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1"/>
+    <row r="1" spans="2:8" ht="14.4" thickBot="1"/>
     <row r="2" spans="2:8">
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
@@ -764,7 +771,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="2:8" ht="18.75">
+    <row r="3" spans="2:8" ht="17.399999999999999">
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
         <v>0</v>
@@ -815,7 +822,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -833,14 +840,14 @@
     <row r="13" spans="2:8">
       <c r="B13" s="4"/>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="4"/>
       <c r="C14" s="23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
@@ -882,13 +889,15 @@
     <row r="19" spans="2:8">
       <c r="B19" s="4"/>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="4"/>
-      <c r="C20" s="17"/>
+      <c r="C20" s="17" t="s">
+        <v>12</v>
+      </c>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
@@ -916,13 +925,15 @@
     <row r="23" spans="2:8">
       <c r="B23" s="4"/>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="4"/>
-      <c r="C24" s="17"/>
+      <c r="C24" s="17" t="s">
+        <v>13</v>
+      </c>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
@@ -945,7 +956,7 @@
     <row r="27" spans="2:8">
       <c r="B27" s="4"/>
       <c r="C27" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -955,14 +966,16 @@
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="4"/>
-      <c r="C28" s="14"/>
+      <c r="C28" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
       <c r="G28" s="16"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="2:8" ht="15.75" thickBot="1">
+    <row r="29" spans="2:8" ht="14.4" thickBot="1">
       <c r="B29" s="8"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
